--- a/XLS Data/States Login.xlsx
+++ b/XLS Data/States Login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8F8204-A478-4A18-A56F-5F1822FEA207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0D15BD-6784-4F03-B6B1-E92855CBFF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{DB0BB14F-EF12-4692-B09C-42F9C3850FA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB0BB14F-EF12-4692-B09C-42F9C3850FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Id" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>SHG Maharashtra</t>
   </si>
   <si>
-    <t>JH_JHBK1</t>
-  </si>
-  <si>
     <t>MP_MPBK</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>AALNI</t>
   </si>
   <si>
-    <t>BALALONG</t>
-  </si>
-  <si>
     <t>AGAR</t>
   </si>
   <si>
@@ -392,13 +386,19 @@
     <t>PUDUCHERRY</t>
   </si>
   <si>
-    <t>LokOSBeta 2.0.32.1(239T).apk</t>
-  </si>
-  <si>
     <t>SHG Bookkeeper</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>JH_JSHGBK1HBK</t>
+  </si>
+  <si>
+    <t>BAJPUR</t>
+  </si>
+  <si>
+    <t>LokOs Dev 5may.apk</t>
   </si>
 </sst>
 </file>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6718C1-BB96-4C29-9D3E-E50B7E78078F}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,21 +901,21 @@
         <v>22</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -924,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -959,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -976,16 +976,16 @@
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -994,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
@@ -1006,21 +1006,21 @@
         <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -1029,16 +1029,16 @@
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
@@ -1046,69 +1046,69 @@
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="J6" s="8" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>13</v>
@@ -1116,34 +1116,34 @@
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>13</v>
@@ -1151,34 +1151,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
@@ -1186,34 +1186,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>13</v>
@@ -1221,34 +1221,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>13</v>
@@ -1256,34 +1256,34 @@
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>13</v>
@@ -1291,34 +1291,34 @@
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>13</v>
@@ -1326,34 +1326,34 @@
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>13</v>
@@ -1361,34 +1361,34 @@
     </row>
     <row r="15" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="F15" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>13</v>
@@ -1396,34 +1396,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>13</v>
@@ -1431,34 +1431,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>13</v>
@@ -1466,34 +1466,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" t="s">
-        <v>82</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>13</v>
@@ -1501,34 +1501,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>13</v>
@@ -1536,34 +1536,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>13</v>
@@ -1571,34 +1571,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>13</v>
@@ -1606,34 +1606,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" t="s">
         <v>89</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" t="s">
-        <v>91</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>13</v>
@@ -1641,34 +1641,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>13</v>
@@ -1676,34 +1676,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>13</v>
@@ -1711,34 +1711,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" t="s">
         <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" t="s">
-        <v>98</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>13</v>

--- a/XLS Data/States Login.xlsx
+++ b/XLS Data/States Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622C2162-F252-44E5-B5F3-C4B5BC0D7184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ABB004-A288-4D15-8034-18BA4B44E899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{DB0BB14F-EF12-4692-B09C-42F9C3850FA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB0BB14F-EF12-4692-B09C-42F9C3850FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Id" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
   <si>
     <t>State</t>
   </si>
@@ -413,142 +413,26 @@
     <t>Test Cases</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Minimum android Smart Phones and Tablet, the smart phone would have at least a 4.5” screen, with about 2GB of free memory and be running Android versions released int 2015 (Referred to as Android 8.0 as the base Operating System). Tested on Redmi 6A (9PPR1.180610.011)</t>
-  </si>
-  <si>
-    <t>The screen will have a buttons which will allow to English and the local language. By default English</t>
-  </si>
-  <si>
-    <t>Minimum 2 language are mandatory</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Try to select more than 2 language</t>
-  </si>
-  <si>
-    <t>The State is not selected from the drop down, so the test should fail</t>
-  </si>
-  <si>
-    <t>Login – SHG, VO and CLF (Bases of user rights)</t>
-  </si>
-  <si>
-    <t>Only mobile user can login on mobile app other user stop at the time of clicking login button</t>
-  </si>
-  <si>
-    <t>Users can log with different- different roles by clicking on Select Role from the login screen</t>
-  </si>
-  <si>
-    <t>Roles on mobiles are SHG Bookkeeper, VO Bookkeeper, SHG Trans Approver &amp; CLF Bookkeeper</t>
-  </si>
-  <si>
-    <t>At the time of login user can login with only one role but He / She can change role after login</t>
-  </si>
-  <si>
-    <t>Try to login without select role (the user should not login)</t>
-  </si>
-  <si>
-    <t>In case of role not selected and clicling on log-in button the pop-up should be "Select Role"</t>
-  </si>
-  <si>
-    <t>After select role user need to enter user name and password</t>
-  </si>
-  <si>
-    <t>A text box (username should not be represented on it's own) provided by admin</t>
-  </si>
-  <si>
-    <t>Verify the Incorrect username,incorrect password</t>
-  </si>
-  <si>
-    <t>Verify valid username and empty password</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Creation of password will be combination of character, number, upper case with one special character. Not less than 8 character. Password should have age minimum and maximum. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>On multiple tries (4 tries) it should be lock for 4 hours. provided by admin</t>
-    </r>
-  </si>
-  <si>
-    <t>Verify the Incorrect username, incorrect password</t>
-  </si>
-  <si>
-    <t>Verify empty username and valid password</t>
-  </si>
-  <si>
-    <t>The user able to login successfully after user the valid user id and password</t>
-  </si>
-  <si>
-    <t>User can't log in to system with proprietary login and password (servers are down, no internet connection)</t>
-  </si>
-  <si>
-    <t>Forget password will allow him to create new password. can be used to rest the password. While the reset may happen (only for active accounts) through a link on SMS or email</t>
-  </si>
-  <si>
-    <r>
-      <t>Wrong password provided</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> four times</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. (and a counter for the wrong password sequence. The temporary hold would be applicable for a period of approximately four hours. A status may also include “marked for reset” – Numeric codes shall be provided for these options. A “password likely compromised” option may be used for temporary deactivation – this would be required in case a UserID is used, say, on a mobile device in a substantially different geographic location consistently. (tbd))</t>
-    </r>
-  </si>
-  <si>
-    <t>User will change password during his first login which was created by admin. User can also change password with option in the interface. Email will be send with link in change password if change is required after first login in the registered mail id.</t>
-  </si>
-  <si>
-    <t>On first time successful login with user id and password user need to generate the 4 digits PIN on his mobile. It will be linked to the mobile and application and stored in local database. Will be used for offline entry. Genrrate pin screen show user name Eg- Login id- QAMobile1</t>
-  </si>
-  <si>
-    <t>Only accept 4 digit</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Test Heading</t>
   </si>
   <si>
-    <t>LokOSBeta 2.0.32.2 239T.apk</t>
-  </si>
-  <si>
     <t>HR_HRSHGBK1</t>
+  </si>
+  <si>
+    <t>lokos_cdfi_5may.apk</t>
+  </si>
+  <si>
+    <t>JH_JHSHGBK3</t>
+  </si>
+  <si>
+    <t>lokos_23jun.apk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,13 +467,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1138,7 +1015,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,7 +1076,7 @@
         <v>125</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -1234,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>10</v>
@@ -1248,15 +1125,9 @@
       <c r="K2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
@@ -1290,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>15</v>
@@ -1304,15 +1175,9 @@
       <c r="K3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -1328,7 +1193,7 @@
     </row>
     <row r="4" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>50</v>
@@ -1340,13 +1205,13 @@
         <v>116</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>11</v>
@@ -1358,17 +1223,11 @@
         <v>19</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>154</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -1402,7 +1261,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>23</v>
@@ -1416,15 +1275,9 @@
       <c r="K5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -1438,9 +1291,9 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>49</v>
@@ -1451,12 +1304,14 @@
       <c r="D6" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
       <c r="F6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>26</v>
@@ -1468,17 +1323,11 @@
         <v>118</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>154</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -1512,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>27</v>
@@ -1526,15 +1375,9 @@
       <c r="K7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -1568,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>28</v>
@@ -1582,15 +1425,9 @@
       <c r="K8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -1604,7 +1441,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="18" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>117</v>
       </c>
@@ -1624,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>39</v>
@@ -1638,15 +1475,9 @@
       <c r="K9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
@@ -1660,7 +1491,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>117</v>
       </c>
@@ -1680,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>41</v>
@@ -1694,15 +1525,9 @@
       <c r="K10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
@@ -1716,7 +1541,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>117</v>
       </c>
@@ -1736,7 +1561,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>40</v>
@@ -1750,15 +1575,9 @@
       <c r="K11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -1772,7 +1591,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>117</v>
       </c>
@@ -1792,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>42</v>
@@ -1806,15 +1625,9 @@
       <c r="K12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -1828,7 +1641,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>117</v>
       </c>
@@ -1848,7 +1661,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>72</v>
@@ -1862,15 +1675,9 @@
       <c r="K13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -1904,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>69</v>
@@ -1918,15 +1725,9 @@
       <c r="K14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -1940,7 +1741,7 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" s="18" customFormat="1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="18" customFormat="1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>117</v>
       </c>
@@ -1960,7 +1761,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>70</v>
@@ -1974,15 +1775,9 @@
       <c r="K15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
@@ -1996,7 +1791,7 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>117</v>
       </c>
@@ -2016,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>96</v>
@@ -2030,15 +1825,9 @@
       <c r="K16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
@@ -2072,7 +1861,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>97</v>
@@ -2086,15 +1875,9 @@
       <c r="K17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
@@ -2108,7 +1891,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" s="18" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>117</v>
       </c>
@@ -2128,7 +1911,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>98</v>
@@ -2142,15 +1925,9 @@
       <c r="K18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
@@ -2164,7 +1941,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>117</v>
       </c>
@@ -2184,7 +1961,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>99</v>
@@ -2198,15 +1975,9 @@
       <c r="K19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
@@ -2240,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>100</v>
@@ -2254,15 +2025,9 @@
       <c r="K20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -2276,7 +2041,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>117</v>
       </c>
@@ -2296,7 +2061,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>101</v>
@@ -2310,15 +2075,9 @@
       <c r="K21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
@@ -2332,7 +2091,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
     </row>
-    <row r="22" spans="1:26" s="18" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>117</v>
       </c>
@@ -2352,7 +2111,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>102</v>
@@ -2366,15 +2125,9 @@
       <c r="K22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
@@ -2388,7 +2141,7 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
     </row>
-    <row r="23" spans="1:26" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>117</v>
       </c>
@@ -2408,7 +2161,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>103</v>
@@ -2422,15 +2175,9 @@
       <c r="K23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -2444,7 +2191,7 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="1:26" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>117</v>
       </c>
@@ -2464,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>104</v>
@@ -2478,15 +2225,9 @@
       <c r="K24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -2500,7 +2241,7 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="1:26" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>117</v>
       </c>
@@ -2520,7 +2261,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>105</v>
@@ -2534,15 +2275,9 @@
       <c r="K25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -2556,7 +2291,7 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" spans="1:26" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>117</v>
       </c>
@@ -2576,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>121</v>
@@ -2590,15 +2325,9 @@
       <c r="K26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -2632,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>123</v>
@@ -2646,15 +2375,9 @@
       <c r="K27" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="L27" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>154</v>
-      </c>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
